--- a/test-data/xlsxDiff_in1.xlsx
+++ b/test-data/xlsxDiff_in1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\xlsxDiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF8477-1894-4EF2-BF31-06F8103AC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F8BAD1-EB0B-4844-A0D8-4F1104CD920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31ACA433-2BBB-4B2C-9EB2-C6D274158579}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>IDX</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>IT budget: servers, licences, gold maintenance fees, trainings, wages, Maserati for IT management and 10 Teslas for IT staff, travel expenses (fuel, hotels and other expenses)</t>
+  </si>
+  <si>
+    <t>idx14</t>
+  </si>
+  <si>
+    <t>Here we add 4 spaces at the end of the text, which Excel will not show us</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -403,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ED6085-8178-47A7-BBA0-A8799D0649DE}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,6 +906,14 @@
         <v>1.8414709848078965</v>
       </c>
       <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5731,16 +5748,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B031EFEE-E713-46C8-966D-D9A6B4D2784F}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="4.7109375" customWidth="1"/>
+    <col min="1" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5795,1809 +5812,1237 @@
       <c r="R1">
         <v>18</v>
       </c>
-      <c r="S1">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="R2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="I2">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="K2">
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="L2">
+      <c r="I3">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="J3">
         <v>14</v>
       </c>
-      <c r="N2">
+      <c r="K3">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="L3">
         <v>16</v>
       </c>
-      <c r="P2">
+      <c r="M3">
         <v>17</v>
       </c>
-      <c r="Q2">
+      <c r="N3">
         <v>18</v>
       </c>
-      <c r="R2">
+      <c r="O3">
         <v>19</v>
       </c>
-      <c r="S2">
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="T2">
+      <c r="Q3">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="R3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="J3">
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="L3">
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="M3">
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="O3">
+      <c r="K4">
         <v>17</v>
       </c>
-      <c r="P3">
+      <c r="L4">
         <v>18</v>
       </c>
-      <c r="Q3">
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="R3">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="S3">
+      <c r="O4">
         <v>21</v>
       </c>
-      <c r="T3">
+      <c r="P4">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="Q4">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="E5">
         <v>13</v>
       </c>
-      <c r="K4">
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="L4">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="I5">
         <v>17</v>
       </c>
-      <c r="O4">
+      <c r="J5">
         <v>18</v>
       </c>
-      <c r="P4">
+      <c r="K5">
         <v>19</v>
       </c>
-      <c r="Q4">
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="R4">
+      <c r="M5">
         <v>21</v>
       </c>
-      <c r="S4">
+      <c r="N5">
         <v>22</v>
       </c>
-      <c r="T4">
+      <c r="O5">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="P5">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="C6">
         <v>13</v>
       </c>
-      <c r="J5">
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="K5">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="G6">
         <v>17</v>
       </c>
-      <c r="N5">
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="O5">
+      <c r="I6">
         <v>19</v>
       </c>
-      <c r="P5">
+      <c r="J6">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="K6">
         <v>21</v>
       </c>
-      <c r="R5">
+      <c r="L6">
         <v>22</v>
       </c>
-      <c r="S5">
+      <c r="M6">
         <v>23</v>
       </c>
-      <c r="T5">
+      <c r="N6">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+      <c r="R6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="B7">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="D7">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="E7">
         <v>17</v>
       </c>
-      <c r="M6">
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="G7">
         <v>19</v>
       </c>
-      <c r="O6">
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="P6">
+      <c r="I7">
         <v>21</v>
       </c>
-      <c r="Q6">
+      <c r="J7">
         <v>22</v>
       </c>
-      <c r="R6">
+      <c r="K7">
         <v>23</v>
       </c>
-      <c r="S6">
+      <c r="L7">
         <v>24</v>
       </c>
-      <c r="T6">
+      <c r="M7">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
+      <c r="N7">
+        <v>26</v>
+      </c>
+      <c r="O7">
+        <v>27</v>
+      </c>
+      <c r="P7">
+        <v>28</v>
+      </c>
+      <c r="Q7">
+        <v>29</v>
+      </c>
+      <c r="R7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="B8">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="M7">
+      <c r="E8">
         <v>19</v>
       </c>
-      <c r="N7">
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="G8">
         <v>21</v>
       </c>
-      <c r="P7">
+      <c r="H8">
         <v>22</v>
       </c>
-      <c r="Q7">
+      <c r="I8">
         <v>23</v>
       </c>
-      <c r="R7">
+      <c r="J8">
         <v>24</v>
       </c>
-      <c r="S7">
+      <c r="K8">
         <v>25</v>
       </c>
-      <c r="T7">
+      <c r="L8">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>31</v>
+      </c>
+      <c r="R8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>17</v>
       </c>
-      <c r="K8">
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="E9">
         <v>21</v>
       </c>
-      <c r="O8">
+      <c r="F9">
         <v>22</v>
       </c>
-      <c r="P8">
+      <c r="G9">
         <v>23</v>
       </c>
-      <c r="Q8">
+      <c r="H9">
         <v>24</v>
       </c>
-      <c r="R8">
+      <c r="I9">
         <v>25</v>
       </c>
-      <c r="S8">
+      <c r="J9">
         <v>26</v>
       </c>
-      <c r="T8">
+      <c r="K9">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="K9">
+      <c r="L9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>31</v>
+      </c>
+      <c r="P9">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <v>33</v>
+      </c>
+      <c r="R9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>19</v>
       </c>
-      <c r="L9">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="C10">
         <v>21</v>
       </c>
-      <c r="N9">
+      <c r="D10">
         <v>22</v>
       </c>
-      <c r="O9">
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="P9">
+      <c r="F10">
         <v>24</v>
       </c>
-      <c r="Q9">
+      <c r="G10">
         <v>25</v>
       </c>
-      <c r="R9">
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="S9">
+      <c r="I10">
         <v>27</v>
       </c>
-      <c r="T9">
+      <c r="J10">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>19</v>
-      </c>
       <c r="K10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>32</v>
+      </c>
+      <c r="O10">
+        <v>33</v>
+      </c>
+      <c r="P10">
+        <v>34</v>
+      </c>
+      <c r="Q10">
+        <v>35</v>
+      </c>
+      <c r="R10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>21</v>
       </c>
-      <c r="M10">
+      <c r="B11">
         <v>22</v>
       </c>
-      <c r="N10">
+      <c r="C11">
         <v>23</v>
       </c>
-      <c r="O10">
+      <c r="D11">
         <v>24</v>
       </c>
-      <c r="P10">
+      <c r="E11">
         <v>25</v>
       </c>
-      <c r="Q10">
+      <c r="F11">
         <v>26</v>
       </c>
-      <c r="R10">
+      <c r="G11">
         <v>27</v>
       </c>
-      <c r="S10">
+      <c r="H11">
         <v>28</v>
       </c>
-      <c r="T10">
+      <c r="I11">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>19</v>
-      </c>
       <c r="J11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M11">
+        <v>33</v>
+      </c>
+      <c r="N11">
+        <v>34</v>
+      </c>
+      <c r="O11">
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <v>36</v>
+      </c>
+      <c r="Q11">
+        <v>37</v>
+      </c>
+      <c r="R11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>23</v>
       </c>
-      <c r="N11">
+      <c r="B12">
         <v>24</v>
       </c>
-      <c r="O11">
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="P11">
+      <c r="D12">
         <v>26</v>
       </c>
-      <c r="Q11">
+      <c r="E12">
         <v>27</v>
       </c>
-      <c r="R11">
+      <c r="F12">
         <v>28</v>
       </c>
-      <c r="S11">
+      <c r="G12">
         <v>29</v>
       </c>
-      <c r="T11">
+      <c r="H12">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
       <c r="I12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J12">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N12">
+        <v>36</v>
+      </c>
+      <c r="O12">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>38</v>
+      </c>
+      <c r="Q12">
+        <v>39</v>
+      </c>
+      <c r="R12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>25</v>
       </c>
-      <c r="O12">
+      <c r="B13">
         <v>26</v>
       </c>
-      <c r="P12">
+      <c r="C13">
         <v>27</v>
       </c>
-      <c r="Q12">
+      <c r="D13">
         <v>28</v>
       </c>
-      <c r="R12">
+      <c r="E13">
         <v>29</v>
       </c>
-      <c r="S12">
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="T12">
+      <c r="G13">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>19</v>
-      </c>
       <c r="H13">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N13">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O13">
+        <v>39</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>41</v>
+      </c>
+      <c r="R13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>27</v>
       </c>
-      <c r="P13">
+      <c r="B14">
         <v>28</v>
       </c>
-      <c r="Q13">
+      <c r="C14">
         <v>29</v>
       </c>
-      <c r="R13">
+      <c r="D14">
         <v>30</v>
       </c>
-      <c r="S13">
+      <c r="E14">
         <v>31</v>
       </c>
-      <c r="T13">
+      <c r="F14">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
       <c r="G14">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I14">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N14">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O14">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P14">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>43</v>
+      </c>
+      <c r="R14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>29</v>
       </c>
-      <c r="Q14">
+      <c r="B15">
         <v>30</v>
       </c>
-      <c r="R14">
+      <c r="C15">
         <v>31</v>
       </c>
-      <c r="S14">
+      <c r="D15">
         <v>32</v>
       </c>
-      <c r="T14">
+      <c r="E15">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>19</v>
-      </c>
       <c r="F15">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G15">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I15">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N15">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O15">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P15">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q15">
+        <v>45</v>
+      </c>
+      <c r="R15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>31</v>
       </c>
-      <c r="R15">
+      <c r="B16">
         <v>32</v>
       </c>
-      <c r="S15">
+      <c r="C16">
         <v>33</v>
       </c>
-      <c r="T15">
+      <c r="D16">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
       <c r="E16">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I16">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P16">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>33</v>
       </c>
-      <c r="S16">
+      <c r="B17">
         <v>34</v>
       </c>
-      <c r="T16">
+      <c r="C17">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
       <c r="D17">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J17">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N17">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O17">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P17">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="R17">
-        <v>34</v>
-      </c>
-      <c r="S17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>35</v>
       </c>
-      <c r="T17">
+      <c r="B18">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
       <c r="C18">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I18">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J18">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O18">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P18">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="R18">
-        <v>35</v>
-      </c>
-      <c r="S18">
-        <v>36</v>
-      </c>
-      <c r="T18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
       <c r="B19">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I19">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J19">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N19">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O19">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P19">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="R19">
-        <v>36</v>
-      </c>
-      <c r="S19">
-        <v>37</v>
-      </c>
-      <c r="T19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G20">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I20">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J20">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N20">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O20">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R20">
-        <v>37</v>
-      </c>
-      <c r="S20">
-        <v>38</v>
-      </c>
-      <c r="T20">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I21">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N21">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="O21">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P21">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R21">
-        <v>38</v>
-      </c>
-      <c r="S21">
-        <v>39</v>
-      </c>
-      <c r="T21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J22">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N22">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O22">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P22">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R22">
-        <v>39</v>
-      </c>
-      <c r="S22">
-        <v>40</v>
-      </c>
-      <c r="T22">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I23">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J23">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N23">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O23">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P23">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="R23">
-        <v>40</v>
-      </c>
-      <c r="S23">
-        <v>41</v>
-      </c>
-      <c r="T23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
-      </c>
-      <c r="F24">
-        <v>29</v>
-      </c>
-      <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <v>31</v>
-      </c>
-      <c r="I24">
-        <v>32</v>
-      </c>
-      <c r="J24">
-        <v>33</v>
-      </c>
-      <c r="K24">
-        <v>34</v>
-      </c>
-      <c r="L24">
-        <v>35</v>
-      </c>
-      <c r="M24">
-        <v>36</v>
-      </c>
-      <c r="N24">
-        <v>37</v>
-      </c>
-      <c r="O24">
-        <v>38</v>
-      </c>
-      <c r="P24">
-        <v>39</v>
-      </c>
-      <c r="Q24">
-        <v>40</v>
-      </c>
-      <c r="R24">
-        <v>41</v>
-      </c>
-      <c r="S24">
-        <v>42</v>
-      </c>
-      <c r="T24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>28</v>
-      </c>
-      <c r="E25">
-        <v>29</v>
-      </c>
-      <c r="F25">
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <v>31</v>
-      </c>
-      <c r="H25">
-        <v>32</v>
-      </c>
-      <c r="I25">
-        <v>33</v>
-      </c>
-      <c r="J25">
-        <v>34</v>
-      </c>
-      <c r="K25">
-        <v>35</v>
-      </c>
-      <c r="L25">
-        <v>36</v>
-      </c>
-      <c r="M25">
-        <v>37</v>
-      </c>
-      <c r="N25">
-        <v>38</v>
-      </c>
-      <c r="O25">
-        <v>39</v>
-      </c>
-      <c r="P25">
-        <v>40</v>
-      </c>
-      <c r="Q25">
-        <v>41</v>
-      </c>
-      <c r="R25">
-        <v>42</v>
-      </c>
-      <c r="S25">
-        <v>43</v>
-      </c>
-      <c r="T25">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>28</v>
-      </c>
-      <c r="D26">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>31</v>
-      </c>
-      <c r="G26">
-        <v>32</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>34</v>
-      </c>
-      <c r="J26">
-        <v>35</v>
-      </c>
-      <c r="K26">
-        <v>36</v>
-      </c>
-      <c r="L26">
-        <v>37</v>
-      </c>
-      <c r="M26">
-        <v>38</v>
-      </c>
-      <c r="N26">
-        <v>39</v>
-      </c>
-      <c r="O26">
-        <v>40</v>
-      </c>
-      <c r="P26">
-        <v>41</v>
-      </c>
-      <c r="Q26">
-        <v>42</v>
-      </c>
-      <c r="R26">
-        <v>43</v>
-      </c>
-      <c r="S26">
-        <v>44</v>
-      </c>
-      <c r="T26">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>31</v>
-      </c>
-      <c r="F27">
-        <v>32</v>
-      </c>
-      <c r="G27">
-        <v>33</v>
-      </c>
-      <c r="H27">
-        <v>34</v>
-      </c>
-      <c r="I27">
-        <v>35</v>
-      </c>
-      <c r="J27">
-        <v>36</v>
-      </c>
-      <c r="K27">
-        <v>37</v>
-      </c>
-      <c r="L27">
-        <v>38</v>
-      </c>
-      <c r="M27">
-        <v>39</v>
-      </c>
-      <c r="N27">
-        <v>40</v>
-      </c>
-      <c r="O27">
-        <v>41</v>
-      </c>
-      <c r="P27">
-        <v>42</v>
-      </c>
-      <c r="Q27">
-        <v>43</v>
-      </c>
-      <c r="R27">
-        <v>44</v>
-      </c>
-      <c r="S27">
-        <v>45</v>
-      </c>
-      <c r="T27">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>31</v>
-      </c>
-      <c r="E28">
-        <v>32</v>
-      </c>
-      <c r="F28">
-        <v>33</v>
-      </c>
-      <c r="G28">
-        <v>34</v>
-      </c>
-      <c r="H28">
-        <v>35</v>
-      </c>
-      <c r="I28">
-        <v>36</v>
-      </c>
-      <c r="J28">
-        <v>37</v>
-      </c>
-      <c r="K28">
-        <v>38</v>
-      </c>
-      <c r="L28">
-        <v>39</v>
-      </c>
-      <c r="M28">
-        <v>40</v>
-      </c>
-      <c r="N28">
-        <v>41</v>
-      </c>
-      <c r="O28">
-        <v>42</v>
-      </c>
-      <c r="P28">
-        <v>43</v>
-      </c>
-      <c r="Q28">
-        <v>44</v>
-      </c>
-      <c r="R28">
-        <v>45</v>
-      </c>
-      <c r="S28">
-        <v>46</v>
-      </c>
-      <c r="T28">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>32</v>
-      </c>
-      <c r="E29">
-        <v>33</v>
-      </c>
-      <c r="F29">
-        <v>34</v>
-      </c>
-      <c r="G29">
-        <v>35</v>
-      </c>
-      <c r="H29">
-        <v>36</v>
-      </c>
-      <c r="I29">
-        <v>37</v>
-      </c>
-      <c r="J29">
-        <v>38</v>
-      </c>
-      <c r="K29">
-        <v>39</v>
-      </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
-      <c r="M29">
-        <v>41</v>
-      </c>
-      <c r="N29">
-        <v>42</v>
-      </c>
-      <c r="O29">
-        <v>43</v>
-      </c>
-      <c r="P29">
-        <v>44</v>
-      </c>
-      <c r="Q29">
-        <v>45</v>
-      </c>
-      <c r="R29">
-        <v>46</v>
-      </c>
-      <c r="S29">
-        <v>47</v>
-      </c>
-      <c r="T29">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>33</v>
-      </c>
-      <c r="E30">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>35</v>
-      </c>
-      <c r="G30">
-        <v>36</v>
-      </c>
-      <c r="H30">
-        <v>37</v>
-      </c>
-      <c r="I30">
-        <v>38</v>
-      </c>
-      <c r="J30">
-        <v>39</v>
-      </c>
-      <c r="K30">
-        <v>40</v>
-      </c>
-      <c r="L30">
-        <v>41</v>
-      </c>
-      <c r="M30">
-        <v>42</v>
-      </c>
-      <c r="N30">
-        <v>43</v>
-      </c>
-      <c r="O30">
-        <v>44</v>
-      </c>
-      <c r="P30">
-        <v>45</v>
-      </c>
-      <c r="Q30">
-        <v>46</v>
-      </c>
-      <c r="R30">
-        <v>47</v>
-      </c>
-      <c r="S30">
-        <v>48</v>
-      </c>
-      <c r="T30">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -7607,16 +7052,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDC3185-53CA-42E6-A4F9-D57C9CEDE8B7}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="4.7109375" customWidth="1"/>
+    <col min="1" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7671,1809 +7116,1237 @@
       <c r="R1">
         <v>18</v>
       </c>
-      <c r="S1">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="R2">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="I2">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="K2">
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="L2">
+      <c r="I3">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="J3">
         <v>14</v>
       </c>
-      <c r="N2">
+      <c r="K3">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="L3">
         <v>16</v>
       </c>
-      <c r="P2">
+      <c r="M3">
         <v>17</v>
       </c>
-      <c r="Q2">
+      <c r="N3">
         <v>18</v>
       </c>
-      <c r="R2">
+      <c r="O3">
         <v>19</v>
       </c>
-      <c r="S2">
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="T2">
+      <c r="Q3">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="R3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="H3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="J3">
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="L3">
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="M3">
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="O3">
+      <c r="K4">
         <v>17</v>
       </c>
-      <c r="P3">
+      <c r="L4">
         <v>18</v>
       </c>
-      <c r="Q3">
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="R3">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="S3">
+      <c r="O4">
         <v>21</v>
       </c>
-      <c r="T3">
+      <c r="P4">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="Q4">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="E5">
         <v>13</v>
       </c>
-      <c r="K4">
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="L4">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="I5">
         <v>17</v>
       </c>
-      <c r="O4">
+      <c r="J5">
         <v>18</v>
       </c>
-      <c r="P4">
+      <c r="K5">
         <v>19</v>
       </c>
-      <c r="Q4">
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="R4">
+      <c r="M5">
         <v>21</v>
       </c>
-      <c r="S4">
+      <c r="N5">
         <v>22</v>
       </c>
-      <c r="T4">
+      <c r="O5">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="P5">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="I5">
+      <c r="C7">
         <v>13</v>
       </c>
-      <c r="J5">
+      <c r="D7">
         <v>14</v>
       </c>
-      <c r="K5">
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="G7">
         <v>17</v>
       </c>
-      <c r="N5">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="O5">
+      <c r="I7">
         <v>19</v>
       </c>
-      <c r="P5">
+      <c r="J7">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="K7">
         <v>21</v>
       </c>
-      <c r="R5">
+      <c r="L7">
         <v>22</v>
       </c>
-      <c r="S5">
+      <c r="M7">
         <v>23</v>
       </c>
-      <c r="T5">
+      <c r="N7">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>27</v>
+      </c>
+      <c r="R7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="B8">
         <v>14</v>
       </c>
-      <c r="J6">
+      <c r="C8">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="E8">
         <v>17</v>
       </c>
-      <c r="M6">
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="G8">
         <v>19</v>
       </c>
-      <c r="O6">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="P6">
+      <c r="I8">
         <v>21</v>
       </c>
-      <c r="Q6">
+      <c r="J8">
         <v>22</v>
       </c>
-      <c r="R6">
+      <c r="K8">
         <v>23</v>
       </c>
-      <c r="S6">
+      <c r="L8">
         <v>24</v>
       </c>
-      <c r="T6">
+      <c r="M8">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
+      <c r="N8">
+        <v>26</v>
+      </c>
+      <c r="O8">
+        <v>27</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <v>29</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="B9">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="M7">
+      <c r="E9">
         <v>19</v>
       </c>
-      <c r="N7">
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="G9">
         <v>21</v>
       </c>
-      <c r="P7">
+      <c r="H9">
         <v>22</v>
       </c>
-      <c r="Q7">
+      <c r="I9">
         <v>23</v>
       </c>
-      <c r="R7">
+      <c r="J9">
         <v>24</v>
       </c>
-      <c r="S7">
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="T7">
+      <c r="L9">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
-      </c>
-      <c r="J8">
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <v>29</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>31</v>
+      </c>
+      <c r="R9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>17</v>
       </c>
-      <c r="K8">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="C10">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="D10">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="E10">
         <v>21</v>
       </c>
-      <c r="O8">
+      <c r="F10">
         <v>22</v>
       </c>
-      <c r="P8">
+      <c r="G10">
         <v>23</v>
       </c>
-      <c r="Q8">
+      <c r="H10">
         <v>24</v>
       </c>
-      <c r="R8">
+      <c r="I10">
         <v>25</v>
       </c>
-      <c r="S8">
+      <c r="J10">
         <v>26</v>
       </c>
-      <c r="T8">
+      <c r="K10">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="K9">
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>31</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>33</v>
+      </c>
+      <c r="R10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>19</v>
       </c>
-      <c r="L9">
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="C11">
         <v>21</v>
       </c>
-      <c r="N9">
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="O9">
+      <c r="E11">
         <v>23</v>
       </c>
-      <c r="P9">
+      <c r="F11">
         <v>24</v>
       </c>
-      <c r="Q9">
+      <c r="G11">
         <v>25</v>
       </c>
-      <c r="R9">
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="S9">
+      <c r="I11">
         <v>27</v>
       </c>
-      <c r="T9">
+      <c r="J11">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
+      <c r="K11">
+        <v>29</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>33</v>
+      </c>
+      <c r="P11">
+        <v>34</v>
+      </c>
+      <c r="Q11">
+        <v>35</v>
+      </c>
+      <c r="R11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>21</v>
       </c>
-      <c r="M10">
+      <c r="B12">
         <v>22</v>
       </c>
-      <c r="N10">
+      <c r="C12">
         <v>23</v>
       </c>
-      <c r="O10">
+      <c r="D12">
         <v>24</v>
       </c>
-      <c r="P10">
+      <c r="E12">
         <v>25</v>
       </c>
-      <c r="Q10">
+      <c r="F12">
         <v>26</v>
       </c>
-      <c r="R10">
+      <c r="G12">
         <v>27</v>
       </c>
-      <c r="S10">
+      <c r="H12">
         <v>28</v>
       </c>
-      <c r="T10">
+      <c r="I12">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>19</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>21</v>
-      </c>
-      <c r="L11">
-        <v>22</v>
-      </c>
-      <c r="M11">
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>35</v>
+      </c>
+      <c r="P12">
+        <v>36</v>
+      </c>
+      <c r="Q12">
+        <v>37</v>
+      </c>
+      <c r="R12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>23</v>
       </c>
-      <c r="N11">
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="O11">
+      <c r="C13">
         <v>25</v>
       </c>
-      <c r="P11">
+      <c r="D13">
         <v>26</v>
       </c>
-      <c r="Q11">
+      <c r="E13">
         <v>27</v>
       </c>
-      <c r="R11">
+      <c r="F13">
         <v>28</v>
       </c>
-      <c r="S11">
+      <c r="G13">
         <v>29</v>
       </c>
-      <c r="T11">
+      <c r="H13">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>21</v>
-      </c>
-      <c r="K12">
-        <v>22</v>
-      </c>
-      <c r="L12">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-      <c r="N12">
+      <c r="I13">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13">
+        <v>34</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>37</v>
+      </c>
+      <c r="P13">
+        <v>38</v>
+      </c>
+      <c r="Q13">
+        <v>39</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>25</v>
       </c>
-      <c r="O12">
+      <c r="B14">
         <v>26</v>
       </c>
-      <c r="P12">
+      <c r="C14">
         <v>27</v>
       </c>
-      <c r="Q12">
+      <c r="D14">
         <v>28</v>
       </c>
-      <c r="R12">
+      <c r="E14">
         <v>29</v>
       </c>
-      <c r="S12">
+      <c r="F14">
         <v>30</v>
       </c>
-      <c r="T12">
+      <c r="G14">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>19</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>21</v>
-      </c>
-      <c r="J13">
-        <v>22</v>
-      </c>
-      <c r="K13">
-        <v>23</v>
-      </c>
-      <c r="L13">
-        <v>24</v>
-      </c>
-      <c r="M13">
-        <v>25</v>
-      </c>
-      <c r="N13">
-        <v>26</v>
-      </c>
-      <c r="O13">
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>37</v>
+      </c>
+      <c r="N14">
+        <v>38</v>
+      </c>
+      <c r="O14">
+        <v>39</v>
+      </c>
+      <c r="P14">
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>41</v>
+      </c>
+      <c r="R14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>27</v>
       </c>
-      <c r="P13">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="Q13">
+      <c r="C15">
         <v>29</v>
       </c>
-      <c r="R13">
+      <c r="D15">
         <v>30</v>
       </c>
-      <c r="S13">
+      <c r="E15">
         <v>31</v>
       </c>
-      <c r="T13">
+      <c r="F15">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
       <c r="G15">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I15">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J15">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N15">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O15">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P15">
+        <v>42</v>
+      </c>
+      <c r="Q15">
+        <v>43</v>
+      </c>
+      <c r="R15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>29</v>
       </c>
-      <c r="Q15">
+      <c r="B16">
         <v>30</v>
       </c>
-      <c r="R15">
+      <c r="C16">
         <v>31</v>
       </c>
-      <c r="S15">
+      <c r="D16">
         <v>32</v>
       </c>
-      <c r="T15">
+      <c r="E16">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>19</v>
-      </c>
       <c r="F16">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N16">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O16">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="P16">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q16">
+        <v>45</v>
+      </c>
+      <c r="R16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>31</v>
       </c>
-      <c r="R16">
+      <c r="B17">
         <v>32</v>
       </c>
-      <c r="S16">
+      <c r="C17">
         <v>33</v>
       </c>
-      <c r="T16">
+      <c r="D17">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
       <c r="E17">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I17">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N17">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P17">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>33</v>
       </c>
-      <c r="S17">
+      <c r="B18">
         <v>34</v>
       </c>
-      <c r="T17">
+      <c r="C18">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
       <c r="D18">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="R18">
-        <v>34</v>
-      </c>
-      <c r="S18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="T18">
+      <c r="B19">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
       <c r="C19">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I19">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J19">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N19">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O19">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P19">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="R19">
-        <v>35</v>
-      </c>
-      <c r="S19">
-        <v>36</v>
-      </c>
-      <c r="T19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
       <c r="B20">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I20">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J20">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N20">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O20">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P20">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="R20">
-        <v>36</v>
-      </c>
-      <c r="S20">
-        <v>37</v>
-      </c>
-      <c r="T20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I21">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J21">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N21">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O21">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P21">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R21">
-        <v>37</v>
-      </c>
-      <c r="S21">
-        <v>38</v>
-      </c>
-      <c r="T21">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I22">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N22">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="O22">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P22">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R22">
-        <v>38</v>
-      </c>
-      <c r="S22">
-        <v>39</v>
-      </c>
-      <c r="T22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F23">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H23">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I23">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J23">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N23">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O23">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P23">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="R23">
-        <v>39</v>
-      </c>
-      <c r="S23">
-        <v>40</v>
-      </c>
-      <c r="T23">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N24">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O24">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P24">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="R24">
-        <v>40</v>
-      </c>
-      <c r="S24">
-        <v>41</v>
-      </c>
-      <c r="T24">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>28</v>
-      </c>
-      <c r="F25">
-        <v>29</v>
-      </c>
-      <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>31</v>
-      </c>
-      <c r="I25">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>33</v>
-      </c>
-      <c r="K25">
-        <v>34</v>
-      </c>
-      <c r="L25">
-        <v>35</v>
-      </c>
-      <c r="M25">
-        <v>36</v>
-      </c>
-      <c r="N25">
-        <v>37</v>
-      </c>
-      <c r="O25">
-        <v>38</v>
-      </c>
-      <c r="P25">
-        <v>39</v>
-      </c>
-      <c r="Q25">
-        <v>40</v>
-      </c>
-      <c r="R25">
-        <v>41</v>
-      </c>
-      <c r="S25">
-        <v>42</v>
-      </c>
-      <c r="T25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>28</v>
-      </c>
-      <c r="E26">
-        <v>29</v>
-      </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26">
-        <v>31</v>
-      </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
-      <c r="I26">
-        <v>33</v>
-      </c>
-      <c r="J26">
-        <v>34</v>
-      </c>
-      <c r="K26">
-        <v>35</v>
-      </c>
-      <c r="L26">
-        <v>36</v>
-      </c>
-      <c r="M26">
-        <v>37</v>
-      </c>
-      <c r="N26">
-        <v>38</v>
-      </c>
-      <c r="O26">
-        <v>39</v>
-      </c>
-      <c r="P26">
-        <v>40</v>
-      </c>
-      <c r="Q26">
-        <v>41</v>
-      </c>
-      <c r="R26">
-        <v>42</v>
-      </c>
-      <c r="S26">
-        <v>43</v>
-      </c>
-      <c r="T26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>28</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>31</v>
-      </c>
-      <c r="G27">
-        <v>32</v>
-      </c>
-      <c r="H27">
-        <v>33</v>
-      </c>
-      <c r="I27">
-        <v>34</v>
-      </c>
-      <c r="J27">
-        <v>35</v>
-      </c>
-      <c r="K27">
-        <v>36</v>
-      </c>
-      <c r="L27">
-        <v>37</v>
-      </c>
-      <c r="M27">
-        <v>38</v>
-      </c>
-      <c r="N27">
-        <v>39</v>
-      </c>
-      <c r="O27">
-        <v>40</v>
-      </c>
-      <c r="P27">
-        <v>41</v>
-      </c>
-      <c r="Q27">
-        <v>42</v>
-      </c>
-      <c r="R27">
-        <v>43</v>
-      </c>
-      <c r="S27">
-        <v>44</v>
-      </c>
-      <c r="T27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>31</v>
-      </c>
-      <c r="F28">
-        <v>32</v>
-      </c>
-      <c r="G28">
-        <v>33</v>
-      </c>
-      <c r="H28">
-        <v>34</v>
-      </c>
-      <c r="I28">
-        <v>35</v>
-      </c>
-      <c r="J28">
-        <v>36</v>
-      </c>
-      <c r="K28">
-        <v>37</v>
-      </c>
-      <c r="L28">
-        <v>38</v>
-      </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>40</v>
-      </c>
-      <c r="O28">
-        <v>41</v>
-      </c>
-      <c r="P28">
-        <v>42</v>
-      </c>
-      <c r="Q28">
-        <v>43</v>
-      </c>
-      <c r="R28">
-        <v>44</v>
-      </c>
-      <c r="S28">
-        <v>45</v>
-      </c>
-      <c r="T28">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>30</v>
-      </c>
-      <c r="D29">
-        <v>31</v>
-      </c>
-      <c r="E29">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>33</v>
-      </c>
-      <c r="G29">
-        <v>34</v>
-      </c>
-      <c r="H29">
-        <v>35</v>
-      </c>
-      <c r="I29">
-        <v>36</v>
-      </c>
-      <c r="J29">
-        <v>37</v>
-      </c>
-      <c r="K29">
-        <v>38</v>
-      </c>
-      <c r="L29">
-        <v>39</v>
-      </c>
-      <c r="M29">
-        <v>40</v>
-      </c>
-      <c r="N29">
-        <v>41</v>
-      </c>
-      <c r="O29">
-        <v>42</v>
-      </c>
-      <c r="P29">
-        <v>43</v>
-      </c>
-      <c r="Q29">
-        <v>44</v>
-      </c>
-      <c r="R29">
-        <v>45</v>
-      </c>
-      <c r="S29">
-        <v>46</v>
-      </c>
-      <c r="T29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <v>32</v>
-      </c>
-      <c r="E30">
-        <v>33</v>
-      </c>
-      <c r="F30">
-        <v>34</v>
-      </c>
-      <c r="G30">
-        <v>35</v>
-      </c>
-      <c r="H30">
-        <v>36</v>
-      </c>
-      <c r="I30">
-        <v>37</v>
-      </c>
-      <c r="J30">
-        <v>38</v>
-      </c>
-      <c r="K30">
-        <v>39</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30">
-        <v>41</v>
-      </c>
-      <c r="N30">
-        <v>42</v>
-      </c>
-      <c r="O30">
-        <v>43</v>
-      </c>
-      <c r="P30">
-        <v>44</v>
-      </c>
-      <c r="Q30">
-        <v>45</v>
-      </c>
-      <c r="R30">
-        <v>46</v>
-      </c>
-      <c r="S30">
-        <v>47</v>
-      </c>
-      <c r="T30">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>33</v>
-      </c>
-      <c r="E31">
-        <v>34</v>
-      </c>
-      <c r="F31">
-        <v>35</v>
-      </c>
-      <c r="G31">
-        <v>36</v>
-      </c>
-      <c r="H31">
-        <v>37</v>
-      </c>
-      <c r="I31">
-        <v>38</v>
-      </c>
-      <c r="J31">
-        <v>39</v>
-      </c>
-      <c r="K31">
-        <v>40</v>
-      </c>
-      <c r="L31">
-        <v>41</v>
-      </c>
-      <c r="M31">
-        <v>42</v>
-      </c>
-      <c r="N31">
-        <v>43</v>
-      </c>
-      <c r="O31">
-        <v>44</v>
-      </c>
-      <c r="P31">
-        <v>45</v>
-      </c>
-      <c r="Q31">
-        <v>46</v>
-      </c>
-      <c r="R31">
-        <v>47</v>
-      </c>
-      <c r="S31">
-        <v>48</v>
-      </c>
-      <c r="T31">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/xlsxDiff_in1.xlsx
+++ b/test-data/xlsxDiff_in1.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\xlsxDiff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\PycharmProjects\skrypty\xlsxDiff\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F8BAD1-EB0B-4844-A0D8-4F1104CD920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB5C490-78DE-485C-B06A-B0AD4CD16399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31ACA433-2BBB-4B2C-9EB2-C6D274158579}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="rmdata" sheetId="6" r:id="rId5"/>
-    <sheet name="rmdata-fix" sheetId="8" r:id="rId6"/>
+    <sheet name="Intro" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="rmdata" sheetId="6" r:id="rId6"/>
+    <sheet name="rmdata-fix" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>IDX</t>
   </si>
@@ -339,15 +340,28 @@
   </si>
   <si>
     <t>Here we add 4 spaces at the end of the text, which Excel will not show us</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>This is cool tool for Excel</t>
+  </si>
+  <si>
+    <t>0.99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -392,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -412,6 +426,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,10 +743,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3329E4D-14CA-4372-A583-4A0D910C837B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ED6085-8178-47A7-BBA0-A8799D0649DE}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -922,7 +974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AE8955-BFC4-432A-B7D0-524CB710C37D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -943,7 +995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB9B5EB-9AEF-4C44-85D7-A33B5D41BEDE}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -971,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD94DB02-FC5C-478B-ADFF-B7807CD06C9C}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
@@ -5746,7 +5798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B031EFEE-E713-46C8-966D-D9A6B4D2784F}">
   <dimension ref="A1:R23"/>
   <sheetViews>
@@ -7050,7 +7102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDC3185-53CA-42E6-A4F9-D57C9CEDE8B7}">
   <dimension ref="A1:R24"/>
   <sheetViews>
